--- a/APIFLab/src/test/resources/Files/Book1.xlsx
+++ b/APIFLab/src/test/resources/Files/Book1.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theki\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B9270-C663-4034-BED8-00B16FFD39EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{62932626-EEAE-470A-9A2A-7349C9F46833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8C655E86-3D92-4952-AF64-671E54CB04F9}"/>
+    <workbookView xWindow="1260" yWindow="1410" windowWidth="25470" windowHeight="16050" xr2:uid="{8C655E86-3D92-4952-AF64-671E54CB04F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,54 +28,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Shuvo</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>Shuvo620@gmail.com</t>
-  </si>
-  <si>
-    <t>Shilpi</t>
-  </si>
-  <si>
-    <t>Mow</t>
-  </si>
-  <si>
-    <t>Shilpi789@gmail.com</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>MDIslam@gmail.com</t>
-  </si>
-  <si>
-    <t>Haque</t>
-  </si>
-  <si>
-    <t>Md789@gmail.com</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>{
+ "firstName": "SD",
+        "lastName": "MN",
+        "phone": "3474331482",
+        "email": "Iqbal@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "firstName": "MD",
+        "lastName": "IS",
+        "phone": "3474631482",
+        "email": "Mniqbal@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "firstName": "SM",
+        "lastName": "OD",
+        "phone": "7184562345",
+        "email": "SMOD@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "firstName": "IB",
+        "lastName": "NL",
+        "phone": "9178893456",
+        "email": "IBNL@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "firstName": "SH",
+        "lastName": "TM",
+        "phone": "9293455456",
+        "email": "SHTM@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "firstName": "Stylebender",
+    "lastName": "Last"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | VAL | firstName | Mohammed              |
+      | VAL | lastName  | Obaid              |
+      | VAL | phone     | 3456767898 |
+      | VAL | email    | mitul.li@yahoo.com |</t>
   </si>
 </sst>
 </file>
@@ -124,9 +127,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,85 +451,47 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>3474563262</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45672345678</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2345678765</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3475674589</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -535,13 +503,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B6940995-2C10-42A6-8FC7-3925B5BEEBC9}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{63E3E9C3-F0F6-4E15-8896-73D77125018E}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{47CFE875-B346-4AE1-9613-709514417EE7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{5D627469-F4C6-4158-B33A-49EC0DF7D23A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
